--- a/Reports/MarketBeatRank/TanzyInvested/IBN.xlsx
+++ b/Reports/MarketBeatRank/TanzyInvested/IBN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="37">
   <si>
     <t>Jun_10</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>6/15/2018,Downgrades,Hold -&gt; Sell,</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -130,12 +139,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -164,14 +184,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -185,6 +213,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -196,6 +230,12 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -207,6 +247,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -218,6 +264,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -227,6 +279,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -238,6 +296,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -251,6 +315,12 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -262,6 +332,12 @@
       <c r="C9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -273,6 +349,12 @@
       <c r="C10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -281,7 +363,13 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -295,6 +383,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -304,6 +398,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -317,6 +417,12 @@
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -328,6 +434,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -339,6 +451,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -348,6 +466,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -361,6 +485,12 @@
       <c r="C18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -372,6 +502,12 @@
       <c r="C19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -383,6 +519,12 @@
       <c r="C20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -394,6 +536,12 @@
       <c r="C21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -405,6 +553,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -416,6 +570,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -427,6 +587,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -438,6 +604,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -449,6 +621,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -458,6 +636,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>2</v>
       </c>
     </row>
